--- a/familiaREis.xlsx
+++ b/familiaREis.xlsx
@@ -8,39 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fatec\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8AED04D-72A3-48D4-B42A-CDF0993022C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB7D79D-BC3A-4F39-8ED6-093588943CEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{F16B0DBC-A30E-4B0D-A874-EA1DAAB81CA0}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="3" xr2:uid="{F16B0DBC-A30E-4B0D-A874-EA1DAAB81CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha3" sheetId="3" r:id="rId1"/>
-    <sheet name="Planilha1" sheetId="1" r:id="rId2"/>
+    <sheet name="Planilha5" sheetId="5" r:id="rId2"/>
+    <sheet name="Planilha8" sheetId="8" r:id="rId3"/>
+    <sheet name="Planilha1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId3"/>
+    <pivotCache cacheId="12" r:id="rId5"/>
+    <pivotCache cacheId="36" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>conta de agua</t>
   </si>
@@ -160,6 +152,9 @@
   </si>
   <si>
     <t>Total Geral</t>
+  </si>
+  <si>
+    <t>importancia</t>
   </si>
 </sst>
 </file>
@@ -286,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -359,12 +354,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF505050"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF505050"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -378,8 +384,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="5" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -395,17 +399,28 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -651,10 +666,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha3!$A$2:$A$3</c:f>
+              <c:f>Planilha3!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Total de gastos mensais</c:v>
                 </c:pt>
               </c:strCache>
@@ -662,11 +692,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha3!$B$2:$B$3</c:f>
+              <c:f>Planilha3!$B$2:$B$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1928</c:v>
                 </c:pt>
               </c:numCache>
@@ -704,10 +749,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha3!$A$2:$A$3</c:f>
+              <c:f>Planilha3!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Total de gastos mensais</c:v>
                 </c:pt>
               </c:strCache>
@@ -715,11 +775,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha3!$C$2:$C$3</c:f>
+              <c:f>Planilha3!$C$2:$C$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.95849999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1950.1385</c:v>
                 </c:pt>
               </c:numCache>
@@ -757,10 +832,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha3!$A$2:$A$3</c:f>
+              <c:f>Planilha3!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Total de gastos mensais</c:v>
                 </c:pt>
               </c:strCache>
@@ -768,11 +858,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha3!$D$2:$D$3</c:f>
+              <c:f>Planilha3!$D$2:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.383600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.91700207499991</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1758.3006020749999</c:v>
                 </c:pt>
               </c:numCache>
@@ -810,10 +915,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha3!$A$2:$A$3</c:f>
+              <c:f>Planilha3!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Total de gastos mensais</c:v>
                 </c:pt>
               </c:strCache>
@@ -821,11 +941,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha3!$E$2:$E$3</c:f>
+              <c:f>Planilha3!$E$2:$E$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>697.0333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.611272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.87550622489618</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1853.1867782248964</c:v>
                 </c:pt>
               </c:numCache>
@@ -863,10 +998,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha3!$A$2:$A$3</c:f>
+              <c:f>Planilha3!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Total de gastos mensais</c:v>
                 </c:pt>
               </c:strCache>
@@ -874,11 +1024,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha3!$F$2:$F$3</c:f>
+              <c:f>Planilha3!$F$2:$F$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>714.2788888888889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.863497440000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>245.55555555555557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.83401244958498</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1929.5319543340295</c:v>
                 </c:pt>
               </c:numCache>
@@ -916,10 +1081,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha3!$A$2:$A$3</c:f>
+              <c:f>Planilha3!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Total de gastos mensais</c:v>
                 </c:pt>
               </c:strCache>
@@ -927,11 +1107,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha3!$G$2:$G$3</c:f>
+              <c:f>Planilha3!$G$2:$G$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>713.64781481481486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.140767388800001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234.0740740740741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.79252074896249</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1920.6551770266515</c:v>
                 </c:pt>
               </c:numCache>
@@ -971,10 +1166,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha3!$A$2:$A$3</c:f>
+              <c:f>Planilha3!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Total de gastos mensais</c:v>
                 </c:pt>
               </c:strCache>
@@ -982,11 +1192,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha3!$H$2:$H$3</c:f>
+              <c:f>Planilha3!$H$2:$H$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>779.15201358024706</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.443582736576005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>223.76543209876547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.75103112292504</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>1982.1120595385137</c:v>
                 </c:pt>
               </c:numCache>
@@ -1026,10 +1251,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha3!$A$2:$A$3</c:f>
+              <c:f>Planilha3!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Total de gastos mensais</c:v>
                 </c:pt>
               </c:strCache>
@@ -1037,11 +1277,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha3!$I$2:$I$3</c:f>
+              <c:f>Planilha3!$I$2:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>809.2621963374487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.772454391307519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234.46502057613171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.70954357136895</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2015.209214876257</c:v>
                 </c:pt>
               </c:numCache>
@@ -1081,10 +1336,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha3!$A$2:$A$3</c:f>
+              <c:f>Planilha3!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Total de gastos mensais</c:v>
                 </c:pt>
               </c:strCache>
@@ -1092,11 +1362,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha3!$J$2:$J$3</c:f>
+              <c:f>Planilha3!$J$2:$J$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>844.0894090685872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.127903479133664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230.76817558299044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.66805809419043</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2052.6535462249017</c:v>
                 </c:pt>
               </c:numCache>
@@ -1136,10 +1421,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha3!$A$2:$A$3</c:f>
+              <c:f>Planilha3!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Total de gastos mensais</c:v>
                 </c:pt>
               </c:strCache>
@@ -1147,11 +1447,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha3!$K$2:$K$3</c:f>
+              <c:f>Planilha3!$K$2:$K$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>891.91799362830386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.510461548716336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>229.66620941929588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.62657469128567</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2092.7212392876017</c:v>
                 </c:pt>
               </c:numCache>
@@ -1191,10 +1506,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha3!$A$2:$A$3</c:f>
+              <c:f>Planilha3!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Total de gastos mensais</c:v>
                 </c:pt>
               </c:strCache>
@@ -1202,11 +1532,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha3!$L$2:$L$3</c:f>
+              <c:f>Planilha3!$L$2:$L$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>933.26551964592466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.920670779690667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231.63313519280601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.58509336255111</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2142.4044189809724</c:v>
                 </c:pt>
               </c:numCache>
@@ -1246,10 +1591,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Planilha3!$A$2:$A$3</c:f>
+              <c:f>Planilha3!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>Total de gastos mensais</c:v>
                 </c:pt>
               </c:strCache>
@@ -1257,11 +1617,26 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha3!$M$2:$M$3</c:f>
+              <c:f>Planilha3!$M$2:$M$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>978.73340485903236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.359084195284481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230.68917339836412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.54361410788295</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>2193.3252765605639</c:v>
                 </c:pt>
               </c:numCache>
@@ -1359,7 +1734,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1391,6 +1766,1973 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1501934271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[familiaREis.xlsx]Planilha5!Tabela dinâmica4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha5!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de janeiro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha5!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total de gastos mensais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha5!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FBB3-437C-8808-9198E0ADB786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha5!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de fevereiro </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha5!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total de gastos mensais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha5!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>716</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.95849999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1950.1385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FBB3-437C-8808-9198E0ADB786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha5!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de março </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha5!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total de gastos mensais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha5!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.383600000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.91700207499991</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1758.3006020749999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FBB3-437C-8808-9198E0ADB786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha5!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de maio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha5!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total de gastos mensais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha5!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>714.2788888888889</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63.863497440000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>245.55555555555557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.83401244958498</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1929.5319543340295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FBB3-437C-8808-9198E0ADB786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha5!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de abril</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha5!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total de gastos mensais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha5!$F$2:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>697.0333333333333</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>62.611272</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>191.66666666666669</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.87550622489618</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1853.1867782248964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-FBB3-437C-8808-9198E0ADB786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha5!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de junho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha5!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total de gastos mensais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha5!$G$2:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>713.64781481481486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.140767388800001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234.0740740740741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.79252074896249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1920.6551770266515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FBB3-437C-8808-9198E0ADB786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha5!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de julho</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha5!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total de gastos mensais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha5!$H$2:$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>779.15201358024706</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.443582736576005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>223.76543209876547</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.75103112292504</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1982.1120595385137</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FBB3-437C-8808-9198E0ADB786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha5!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de agosto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha5!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total de gastos mensais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha5!$I$2:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>809.2621963374487</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.772454391307519</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>234.46502057613171</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.70954357136895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2015.209214876257</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-FBB3-437C-8808-9198E0ADB786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha5!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de setembro </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha5!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total de gastos mensais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha5!$J$2:$J$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>844.0894090685872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.127903479133664</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230.76817558299044</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.66805809419043</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2052.6535462249017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-FBB3-437C-8808-9198E0ADB786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha5!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de outubro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha5!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total de gastos mensais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha5!$K$2:$K$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>891.91799362830386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70.510461548716336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>229.66620941929588</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.62657469128567</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2092.7212392876017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-FBB3-437C-8808-9198E0ADB786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha5!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de novembro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha5!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total de gastos mensais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha5!$L$2:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>933.26551964592466</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.920670779690667</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>231.63313519280601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.58509336255111</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2142.4044189809724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-FBB3-437C-8808-9198E0ADB786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha5!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Soma de dezembro</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha5!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Total de gastos mensais</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha5!$M$2:$M$8</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>978.73340485903236</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.359084195284481</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>230.68917339836412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>829.54361410788295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2193.3252765605639</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-FBB3-437C-8808-9198E0ADB786}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1695765103"/>
+        <c:axId val="1631527135"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1695765103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1631527135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1631527135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1695765103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[familiaREis.xlsx]Planilha8!Tabela dinâmica7</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha8!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Planilha8!$A$2:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>compra </c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>conta de agua</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>conta de luz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gasolina</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>prestação da casa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha8!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>_("R$"* #,##0.00_);_("R$"* \(#,##0.00\);_("R$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>650</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>830</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-936F-42C6-8CCB-1382B2872794}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1695796703"/>
+        <c:axId val="1689491311"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1695796703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1689491311"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1689491311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;R$&quot;* #,##0.00_);_(&quot;R$&quot;* \(#,##0.00\);_(&quot;R$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1695796703"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1533,7 +3875,1093 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2057,6 +5485,88 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE481AE7-FBBD-47B0-B463-AC102E30F21F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{325ED676-C62F-44DD-A510-DEC2AD378105}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDD05017-A1E8-4061-BA38-69E259236804}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2128,6 +5638,66 @@
     </cacheField>
     <cacheField name="dezembro" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="73.359084195284481" maxValue="2193.3252765605639"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Fatec" refreshedDate="45162.915126388885" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5" xr:uid="{A3CD91FC-F00F-480D-91C6-BE0627C870CA}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2:M7" sheet="Planilha1"/>
+  </cacheSource>
+  <cacheFields count="13">
+    <cacheField name="despesas" numFmtId="0">
+      <sharedItems count="5">
+        <s v="conta de luz"/>
+        <s v="conta de agua"/>
+        <s v="prestação da casa"/>
+        <s v="gasolina"/>
+        <s v="compra "/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="janeiro" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="59" maxValue="830"/>
+    </cacheField>
+    <cacheField name="fevereiro " numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="60.18" maxValue="829.95849999999996"/>
+    </cacheField>
+    <cacheField name="março " numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="61.383600000000001" maxValue="829.91700207499991"/>
+    </cacheField>
+    <cacheField name="abril" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="62.611272" maxValue="829.87550622489618"/>
+    </cacheField>
+    <cacheField name="maio" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="63.863497440000003" maxValue="829.83401244958498"/>
+    </cacheField>
+    <cacheField name="junho" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="65.140767388800001" maxValue="829.79252074896249"/>
+    </cacheField>
+    <cacheField name="julho" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="66.443582736576005" maxValue="829.75103112292504"/>
+    </cacheField>
+    <cacheField name="agosto" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="67.772454391307519" maxValue="829.70954357136895"/>
+    </cacheField>
+    <cacheField name="setembro " numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="69.127903479133664" maxValue="844.0894090685872"/>
+    </cacheField>
+    <cacheField name="outubro" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="70.510461548716336" maxValue="891.91799362830386"/>
+    </cacheField>
+    <cacheField name="novembro" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="71.920670779690667" maxValue="933.26551964592466"/>
+    </cacheField>
+    <cacheField name="dezembro" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="73.359084195284481" maxValue="978.73340485903236"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -2233,17 +5803,97 @@
 </pivotCacheRecords>
 </file>
 
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+  <r>
+    <x v="0"/>
+    <n v="59"/>
+    <n v="64"/>
+    <n v="67"/>
+    <n v="72"/>
+    <n v="76"/>
+    <n v="78"/>
+    <n v="83"/>
+    <n v="74"/>
+    <n v="79"/>
+    <n v="71"/>
+    <n v="76"/>
+    <n v="81"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="59"/>
+    <n v="60.18"/>
+    <n v="61.383600000000001"/>
+    <n v="62.611272"/>
+    <n v="63.863497440000003"/>
+    <n v="65.140767388800001"/>
+    <n v="66.443582736576005"/>
+    <n v="67.772454391307519"/>
+    <n v="69.127903479133664"/>
+    <n v="70.510461548716336"/>
+    <n v="71.920670779690667"/>
+    <n v="73.359084195284481"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="830"/>
+    <n v="829.95849999999996"/>
+    <n v="829.91700207499991"/>
+    <n v="829.87550622489618"/>
+    <n v="829.83401244958498"/>
+    <n v="829.79252074896249"/>
+    <n v="829.75103112292504"/>
+    <n v="829.70954357136895"/>
+    <n v="829.66805809419043"/>
+    <n v="829.62657469128567"/>
+    <n v="829.58509336255111"/>
+    <n v="829.54361410788295"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="330"/>
+    <n v="280"/>
+    <n v="265"/>
+    <n v="191.66666666666669"/>
+    <n v="245.55555555555557"/>
+    <n v="234.0740740740741"/>
+    <n v="223.76543209876547"/>
+    <n v="234.46502057613171"/>
+    <n v="230.76817558299044"/>
+    <n v="229.66620941929588"/>
+    <n v="231.63313519280601"/>
+    <n v="230.68917339836412"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="650"/>
+    <n v="716"/>
+    <n v="535"/>
+    <n v="697.0333333333333"/>
+    <n v="714.2788888888889"/>
+    <n v="713.64781481481486"/>
+    <n v="779.15201358024706"/>
+    <n v="809.2621963374487"/>
+    <n v="844.0894090685872"/>
+    <n v="891.91799362830386"/>
+    <n v="933.26551964592466"/>
+    <n v="978.73340485903236"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD2CD0D1-A955-45EA-B35C-FFB7C2F73182}" name="Tabela dinâmica2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A1:M3" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BD2CD0D1-A955-45EA-B35C-FFB7C2F73182}" name="Tabela dinâmica2" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:M8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField axis="axisRow" showAll="0">
       <items count="7">
-        <item h="1" x="4"/>
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
         <item x="5"/>
         <item t="default"/>
       </items>
@@ -2264,7 +5914,22 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
     <i>
       <x v="5"/>
     </i>
@@ -2327,6 +5992,11 @@
     <dataField name="Soma de novembro" fld="11" baseField="0" baseItem="0"/>
     <dataField name="Soma de dezembro" fld="12" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="12">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -2432,6 +6102,326 @@
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
             <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleDark2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7DEAF64A-B2EA-4CD9-9DE4-C6F3206FE543}" name="Tabela dinâmica4" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:M8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+    <i i="6">
+      <x v="6"/>
+    </i>
+    <i i="7">
+      <x v="7"/>
+    </i>
+    <i i="8">
+      <x v="8"/>
+    </i>
+    <i i="9">
+      <x v="9"/>
+    </i>
+    <i i="10">
+      <x v="10"/>
+    </i>
+    <i i="11">
+      <x v="11"/>
+    </i>
+  </colItems>
+  <dataFields count="12">
+    <dataField name="Soma de janeiro" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Soma de fevereiro " fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Soma de março " fld="3" baseField="0" baseItem="0"/>
+    <dataField name="Soma de maio" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Soma de abril" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Soma de junho" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Soma de julho" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Soma de agosto" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Soma de setembro " fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Soma de outubro" fld="10" baseField="0" baseItem="0"/>
+    <dataField name="Soma de novembro" fld="11" baseField="0" baseItem="0"/>
+    <dataField name="Soma de dezembro" fld="12" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="12">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="10" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="10"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="11" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="11"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BF087D2E-2406-4233-BD94-9E3EDE9C6616}" name="Tabela dinâmica7" cacheId="36" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="4"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de janeiro" fld="1" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -2746,10 +6736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF90E9B-116C-4E93-A83B-5DF73CF4368C}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2770,7 +6760,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
       <c r="B1" t="s">
@@ -2811,85 +6801,682 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>21</v>
+      <c r="A2" s="21" t="s">
+        <v>3</v>
       </c>
       <c r="B2" s="22">
-        <v>1928</v>
+        <v>650</v>
       </c>
       <c r="C2" s="22">
-        <v>1950.1385</v>
+        <v>716</v>
       </c>
       <c r="D2" s="22">
-        <v>1758.3006020749999</v>
+        <v>535</v>
       </c>
       <c r="E2" s="22">
-        <v>1853.1867782248964</v>
+        <v>697.0333333333333</v>
       </c>
       <c r="F2" s="22">
-        <v>1929.5319543340295</v>
+        <v>714.2788888888889</v>
       </c>
       <c r="G2" s="22">
-        <v>1920.6551770266515</v>
+        <v>713.64781481481486</v>
       </c>
       <c r="H2" s="22">
-        <v>1982.1120595385137</v>
+        <v>779.15201358024706</v>
       </c>
       <c r="I2" s="22">
-        <v>2015.209214876257</v>
+        <v>809.2621963374487</v>
       </c>
       <c r="J2" s="22">
-        <v>2052.6535462249017</v>
+        <v>844.0894090685872</v>
       </c>
       <c r="K2" s="22">
-        <v>2092.7212392876017</v>
+        <v>891.91799362830386</v>
       </c>
       <c r="L2" s="22">
-        <v>2142.4044189809724</v>
+        <v>933.26551964592466</v>
       </c>
       <c r="M2" s="22">
-        <v>2193.3252765605639</v>
+        <v>978.73340485903236</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22">
+        <v>59</v>
+      </c>
+      <c r="C3" s="22">
+        <v>60.18</v>
+      </c>
+      <c r="D3" s="22">
+        <v>61.383600000000001</v>
+      </c>
+      <c r="E3" s="22">
+        <v>62.611272</v>
+      </c>
+      <c r="F3" s="22">
+        <v>63.863497440000003</v>
+      </c>
+      <c r="G3" s="22">
+        <v>65.140767388800001</v>
+      </c>
+      <c r="H3" s="22">
+        <v>66.443582736576005</v>
+      </c>
+      <c r="I3" s="22">
+        <v>67.772454391307519</v>
+      </c>
+      <c r="J3" s="22">
+        <v>69.127903479133664</v>
+      </c>
+      <c r="K3" s="22">
+        <v>70.510461548716336</v>
+      </c>
+      <c r="L3" s="22">
+        <v>71.920670779690667</v>
+      </c>
+      <c r="M3" s="22">
+        <v>73.359084195284481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22">
+        <v>59</v>
+      </c>
+      <c r="C4" s="22">
+        <v>64</v>
+      </c>
+      <c r="D4" s="22">
+        <v>67</v>
+      </c>
+      <c r="E4" s="22">
+        <v>72</v>
+      </c>
+      <c r="F4" s="22">
+        <v>76</v>
+      </c>
+      <c r="G4" s="22">
+        <v>78</v>
+      </c>
+      <c r="H4" s="22">
+        <v>83</v>
+      </c>
+      <c r="I4" s="22">
+        <v>74</v>
+      </c>
+      <c r="J4" s="22">
+        <v>79</v>
+      </c>
+      <c r="K4" s="22">
+        <v>71</v>
+      </c>
+      <c r="L4" s="22">
+        <v>76</v>
+      </c>
+      <c r="M4" s="22">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22">
+        <v>330</v>
+      </c>
+      <c r="C5" s="22">
+        <v>280</v>
+      </c>
+      <c r="D5" s="22">
+        <v>265</v>
+      </c>
+      <c r="E5" s="22">
+        <v>191.66666666666669</v>
+      </c>
+      <c r="F5" s="22">
+        <v>245.55555555555557</v>
+      </c>
+      <c r="G5" s="22">
+        <v>234.0740740740741</v>
+      </c>
+      <c r="H5" s="22">
+        <v>223.76543209876547</v>
+      </c>
+      <c r="I5" s="22">
+        <v>234.46502057613171</v>
+      </c>
+      <c r="J5" s="22">
+        <v>230.76817558299044</v>
+      </c>
+      <c r="K5" s="22">
+        <v>229.66620941929588</v>
+      </c>
+      <c r="L5" s="22">
+        <v>231.63313519280601</v>
+      </c>
+      <c r="M5" s="22">
+        <v>230.68917339836412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22">
+        <v>830</v>
+      </c>
+      <c r="C6" s="22">
+        <v>829.95849999999996</v>
+      </c>
+      <c r="D6" s="22">
+        <v>829.91700207499991</v>
+      </c>
+      <c r="E6" s="22">
+        <v>829.87550622489618</v>
+      </c>
+      <c r="F6" s="22">
+        <v>829.83401244958498</v>
+      </c>
+      <c r="G6" s="22">
+        <v>829.79252074896249</v>
+      </c>
+      <c r="H6" s="22">
+        <v>829.75103112292504</v>
+      </c>
+      <c r="I6" s="22">
+        <v>829.70954357136895</v>
+      </c>
+      <c r="J6" s="22">
+        <v>829.66805809419043</v>
+      </c>
+      <c r="K6" s="22">
+        <v>829.62657469128567</v>
+      </c>
+      <c r="L6" s="22">
+        <v>829.58509336255111</v>
+      </c>
+      <c r="M6" s="22">
+        <v>829.54361410788295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="22">
+        <v>1928</v>
+      </c>
+      <c r="C7" s="22">
+        <v>1950.1385</v>
+      </c>
+      <c r="D7" s="22">
+        <v>1758.3006020749999</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1853.1867782248964</v>
+      </c>
+      <c r="F7" s="22">
+        <v>1929.5319543340295</v>
+      </c>
+      <c r="G7" s="22">
+        <v>1920.6551770266515</v>
+      </c>
+      <c r="H7" s="22">
+        <v>1982.1120595385137</v>
+      </c>
+      <c r="I7" s="22">
+        <v>2015.209214876257</v>
+      </c>
+      <c r="J7" s="22">
+        <v>2052.6535462249017</v>
+      </c>
+      <c r="K7" s="22">
+        <v>2092.7212392876017</v>
+      </c>
+      <c r="L7" s="22">
+        <v>2142.4044189809724</v>
+      </c>
+      <c r="M7" s="22">
+        <v>2193.3252765605639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
         <v>39</v>
       </c>
+      <c r="B8" s="22">
+        <v>3856</v>
+      </c>
+      <c r="C8" s="22">
+        <v>3900.277</v>
+      </c>
+      <c r="D8" s="22">
+        <v>3516.6012041499998</v>
+      </c>
+      <c r="E8" s="22">
+        <v>3706.3735564497924</v>
+      </c>
+      <c r="F8" s="22">
+        <v>3859.0639086680594</v>
+      </c>
+      <c r="G8" s="22">
+        <v>3841.3103540533029</v>
+      </c>
+      <c r="H8" s="22">
+        <v>3964.2241190770274</v>
+      </c>
+      <c r="I8" s="22">
+        <v>4030.4184297525135</v>
+      </c>
+      <c r="J8" s="22">
+        <v>4105.3070924498033</v>
+      </c>
+      <c r="K8" s="22">
+        <v>4185.4424785752035</v>
+      </c>
+      <c r="L8" s="22">
+        <v>4284.8088379619448</v>
+      </c>
+      <c r="M8" s="22">
+        <v>4386.6505531211278</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L16">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0A35B9FA-86BC-4341-A113-9956CA670365}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0A35B9FA-86BC-4341-A113-9956CA670365}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L16</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48056530-09A3-46E9-82C4-484448936411}">
+  <dimension ref="A1:M8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="22">
+        <v>650</v>
+      </c>
+      <c r="C2" s="22">
+        <v>716</v>
+      </c>
+      <c r="D2" s="22">
+        <v>535</v>
+      </c>
+      <c r="E2" s="22">
+        <v>714.2788888888889</v>
+      </c>
+      <c r="F2" s="22">
+        <v>697.0333333333333</v>
+      </c>
+      <c r="G2" s="22">
+        <v>713.64781481481486</v>
+      </c>
+      <c r="H2" s="22">
+        <v>779.15201358024706</v>
+      </c>
+      <c r="I2" s="22">
+        <v>809.2621963374487</v>
+      </c>
+      <c r="J2" s="22">
+        <v>844.0894090685872</v>
+      </c>
+      <c r="K2" s="22">
+        <v>891.91799362830386</v>
+      </c>
+      <c r="L2" s="22">
+        <v>933.26551964592466</v>
+      </c>
+      <c r="M2" s="22">
+        <v>978.73340485903236</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" s="22">
+        <v>59</v>
+      </c>
+      <c r="C3" s="22">
+        <v>60.18</v>
+      </c>
+      <c r="D3" s="22">
+        <v>61.383600000000001</v>
+      </c>
+      <c r="E3" s="22">
+        <v>63.863497440000003</v>
+      </c>
+      <c r="F3" s="22">
+        <v>62.611272</v>
+      </c>
+      <c r="G3" s="22">
+        <v>65.140767388800001</v>
+      </c>
+      <c r="H3" s="22">
+        <v>66.443582736576005</v>
+      </c>
+      <c r="I3" s="22">
+        <v>67.772454391307519</v>
+      </c>
+      <c r="J3" s="22">
+        <v>69.127903479133664</v>
+      </c>
+      <c r="K3" s="22">
+        <v>70.510461548716336</v>
+      </c>
+      <c r="L3" s="22">
+        <v>71.920670779690667</v>
+      </c>
+      <c r="M3" s="22">
+        <v>73.359084195284481</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22">
+        <v>59</v>
+      </c>
+      <c r="C4" s="22">
+        <v>64</v>
+      </c>
+      <c r="D4" s="22">
+        <v>67</v>
+      </c>
+      <c r="E4" s="22">
+        <v>76</v>
+      </c>
+      <c r="F4" s="22">
+        <v>72</v>
+      </c>
+      <c r="G4" s="22">
+        <v>78</v>
+      </c>
+      <c r="H4" s="22">
+        <v>83</v>
+      </c>
+      <c r="I4" s="22">
+        <v>74</v>
+      </c>
+      <c r="J4" s="22">
+        <v>79</v>
+      </c>
+      <c r="K4" s="22">
+        <v>71</v>
+      </c>
+      <c r="L4" s="22">
+        <v>76</v>
+      </c>
+      <c r="M4" s="22">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22">
+        <v>330</v>
+      </c>
+      <c r="C5" s="22">
+        <v>280</v>
+      </c>
+      <c r="D5" s="22">
+        <v>265</v>
+      </c>
+      <c r="E5" s="22">
+        <v>245.55555555555557</v>
+      </c>
+      <c r="F5" s="22">
+        <v>191.66666666666669</v>
+      </c>
+      <c r="G5" s="22">
+        <v>234.0740740740741</v>
+      </c>
+      <c r="H5" s="22">
+        <v>223.76543209876547</v>
+      </c>
+      <c r="I5" s="22">
+        <v>234.46502057613171</v>
+      </c>
+      <c r="J5" s="22">
+        <v>230.76817558299044</v>
+      </c>
+      <c r="K5" s="22">
+        <v>229.66620941929588</v>
+      </c>
+      <c r="L5" s="22">
+        <v>231.63313519280601</v>
+      </c>
+      <c r="M5" s="22">
+        <v>230.68917339836412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22">
+        <v>830</v>
+      </c>
+      <c r="C6" s="22">
+        <v>829.95849999999996</v>
+      </c>
+      <c r="D6" s="22">
+        <v>829.91700207499991</v>
+      </c>
+      <c r="E6" s="22">
+        <v>829.83401244958498</v>
+      </c>
+      <c r="F6" s="22">
+        <v>829.87550622489618</v>
+      </c>
+      <c r="G6" s="22">
+        <v>829.79252074896249</v>
+      </c>
+      <c r="H6" s="22">
+        <v>829.75103112292504</v>
+      </c>
+      <c r="I6" s="22">
+        <v>829.70954357136895</v>
+      </c>
+      <c r="J6" s="22">
+        <v>829.66805809419043</v>
+      </c>
+      <c r="K6" s="22">
+        <v>829.62657469128567</v>
+      </c>
+      <c r="L6" s="22">
+        <v>829.58509336255111</v>
+      </c>
+      <c r="M6" s="22">
+        <v>829.54361410788295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="22">
         <v>1928</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C7" s="22">
         <v>1950.1385</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D7" s="22">
         <v>1758.3006020749999</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E7" s="22">
+        <v>1929.5319543340295</v>
+      </c>
+      <c r="F7" s="22">
         <v>1853.1867782248964</v>
       </c>
-      <c r="F3" s="22">
-        <v>1929.5319543340295</v>
-      </c>
-      <c r="G3" s="22">
+      <c r="G7" s="22">
         <v>1920.6551770266515</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H7" s="22">
         <v>1982.1120595385137</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I7" s="22">
         <v>2015.209214876257</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J7" s="22">
         <v>2052.6535462249017</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K7" s="22">
         <v>2092.7212392876017</v>
       </c>
-      <c r="L3" s="22">
+      <c r="L7" s="22">
         <v>2142.4044189809724</v>
       </c>
-      <c r="M3" s="22">
+      <c r="M7" s="22">
         <v>2193.3252765605639</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="22">
+        <v>3856</v>
+      </c>
+      <c r="C8" s="22">
+        <v>3900.277</v>
+      </c>
+      <c r="D8" s="22">
+        <v>3516.6012041499998</v>
+      </c>
+      <c r="E8" s="22">
+        <v>3859.0639086680594</v>
+      </c>
+      <c r="F8" s="22">
+        <v>3706.3735564497924</v>
+      </c>
+      <c r="G8" s="22">
+        <v>3841.3103540533029</v>
+      </c>
+      <c r="H8" s="22">
+        <v>3964.2241190770274</v>
+      </c>
+      <c r="I8" s="22">
+        <v>4030.4184297525135</v>
+      </c>
+      <c r="J8" s="22">
+        <v>4105.3070924498033</v>
+      </c>
+      <c r="K8" s="22">
+        <v>4185.4424785752035</v>
+      </c>
+      <c r="L8" s="22">
+        <v>4284.8088379619448</v>
+      </c>
+      <c r="M8" s="22">
+        <v>4386.6505531211278</v>
       </c>
     </row>
   </sheetData>
@@ -2898,12 +7485,97 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1655A523-0151-46B3-8901-A28D20BE6671}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="22">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="22">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="22">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="22">
+        <v>1928</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2806F753-D9D6-43DA-8EC8-B82E6C30A236}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2912,26 +7584,27 @@
     <col min="2" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="21"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="19"/>
     </row>
-    <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>25</v>
       </c>
@@ -2971,264 +7644,282 @@
       <c r="M2" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="N2" s="23" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="13">
         <v>59</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="13">
         <f>(B3+5)</f>
         <v>64</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="13">
         <f>(C3+3)</f>
         <v>67</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="13">
         <f>(D3+5)</f>
         <v>72</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="13">
         <f>(E3+4)</f>
         <v>76</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="13">
         <f>(F3+2)</f>
         <v>78</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="13">
         <f>(G3+5)</f>
         <v>83</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="13">
         <f>(H3-9)</f>
         <v>74</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="13">
         <f>+(I3+5)</f>
         <v>79</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="13">
         <f>(J3-8)</f>
         <v>71</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="13">
         <f>(K3+5)</f>
         <v>76</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="13">
         <f>(L3+5)</f>
         <v>81</v>
       </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="13">
         <v>59</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="13">
         <f>B4*1.02</f>
         <v>60.18</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="13">
         <f t="shared" ref="D4:M4" si="0">C4*1.02</f>
         <v>61.383600000000001</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <f t="shared" si="0"/>
         <v>62.611272</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <f t="shared" si="0"/>
         <v>63.863497440000003</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="13">
         <f t="shared" si="0"/>
         <v>65.140767388800001</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="13">
         <f t="shared" si="0"/>
         <v>66.443582736576005</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="13">
         <f t="shared" si="0"/>
         <v>67.772454391307519</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="13">
         <f t="shared" si="0"/>
         <v>69.127903479133664</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="13">
         <f t="shared" si="0"/>
         <v>70.510461548716336</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="13">
         <f t="shared" si="0"/>
         <v>71.920670779690667</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="13">
         <f t="shared" si="0"/>
         <v>73.359084195284481</v>
       </c>
+      <c r="N4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="13">
         <v>830</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="13">
         <f>B5*0.99995</f>
         <v>829.95849999999996</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="13">
         <f t="shared" ref="D5:M5" si="1">C5*0.99995</f>
         <v>829.91700207499991</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="13">
         <f t="shared" si="1"/>
         <v>829.87550622489618</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="13">
         <f t="shared" si="1"/>
         <v>829.83401244958498</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="13">
         <f t="shared" si="1"/>
         <v>829.79252074896249</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="13">
         <f t="shared" si="1"/>
         <v>829.75103112292504</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="13">
         <f t="shared" si="1"/>
         <v>829.70954357136895</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="13">
         <f t="shared" si="1"/>
         <v>829.66805809419043</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="13">
         <f t="shared" si="1"/>
         <v>829.62657469128567</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="13">
         <f t="shared" si="1"/>
         <v>829.58509336255111</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="13">
         <f t="shared" si="1"/>
         <v>829.54361410788295</v>
       </c>
+      <c r="N5" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>330</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>280</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>265</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <f>AVERAGE(B6,C6,D6)-100</f>
         <v>191.66666666666669</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <f>AVERAGE(C6,D6,E6)</f>
         <v>245.55555555555557</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="15">
         <f t="shared" ref="G6:M6" si="2">AVERAGE(D6,E6,F6)</f>
         <v>234.0740740740741</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <f t="shared" si="2"/>
         <v>223.76543209876547</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="15">
         <f t="shared" si="2"/>
         <v>234.46502057613171</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="15">
         <f t="shared" si="2"/>
         <v>230.76817558299044</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="15">
         <f t="shared" si="2"/>
         <v>229.66620941929588</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="15">
         <f t="shared" si="2"/>
         <v>231.63313519280601</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="15">
         <f t="shared" si="2"/>
         <v>230.68917339836412</v>
       </c>
+      <c r="N6" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>650</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>716</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>535</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <f>AVERAGE(B7,C7,D7)*1.1</f>
         <v>697.0333333333333</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <f t="shared" ref="F7:M7" si="3">AVERAGE(C7,D7,E7)*1.1</f>
         <v>714.2788888888889</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <f t="shared" si="3"/>
         <v>713.64781481481486</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="14">
         <f t="shared" si="3"/>
         <v>779.15201358024706</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="14">
         <f t="shared" si="3"/>
         <v>809.2621963374487</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="14">
         <f t="shared" si="3"/>
         <v>844.0894090685872</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="14">
         <f t="shared" si="3"/>
         <v>891.91799362830386</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="14">
         <f t="shared" si="3"/>
         <v>933.26551964592466</v>
       </c>
-      <c r="M7" s="16">
+      <c r="M7" s="14">
         <f t="shared" si="3"/>
         <v>978.73340485903236</v>
       </c>
+      <c r="N7" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -3281,10 +7972,10 @@
         <v>2193.3252765605639</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
     </row>
-    <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>24</v>
       </c>
@@ -3337,7 +8028,7 @@
         <v>99.634723439436129</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="str">
         <f t="shared" ref="B12:M12" si="6">IF(B11&gt;=200,"OK","PERIGO")</f>
         <v>OK</v>
@@ -3387,11 +8078,11 @@
         <v>PERIGO</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="16"/>
       <c r="D15" s="8" t="s">
         <v>23</v>
       </c>
@@ -3399,20 +8090,29 @@
         <v>2292.96</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <f>COUNTIF(N3:N7,B16)</f>
+        <v>3</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12">
+        <f t="shared" ref="A17:A18" si="7">COUNTIF(N4:N8,B17)</f>
+        <v>1</v>
+      </c>
       <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
+      <c r="A18" s="12">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
